--- a/results/Pigs.xlsx
+++ b/results/Pigs.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Pigs_LMS2" r:id="rId3" sheetId="1"/>
+    <sheet name="Pigs_LMS8" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Province</t>
   </si>
@@ -48,6 +49,21 @@
   </si>
   <si>
     <t>QC</t>
+  </si>
+  <si>
+    <t>No Cover</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Structure with Roof</t>
+  </si>
+  <si>
+    <t>Straw</t>
+  </si>
+  <si>
+    <t>Floating Cover in Contact with Manure</t>
   </si>
 </sst>
 </file>
@@ -231,4 +247,132 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>